--- a/week1.xlsx
+++ b/week1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\Desktop\单词\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E73A61F9-F556-4F0A-9C53-EFDA4DA78FE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EACCDFA-84FE-4E2D-82BE-5A94AE7C0AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4137" yWindow="1633" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,13 +374,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -395,8 +414,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -679,16 +701,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="35.5" customWidth="1"/>
+    <col min="2" max="5" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -719,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -733,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -747,21 +769,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -775,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -789,21 +811,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -817,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -825,7 +847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -833,7 +855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -841,15 +863,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -857,7 +879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -865,7 +887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -873,23 +895,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="17" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -897,7 +919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -905,31 +927,31 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="22" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="23" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -937,7 +959,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -945,15 +967,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="26" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -961,7 +983,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>58</v>
       </c>
@@ -969,7 +991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>60</v>
       </c>
@@ -977,15 +999,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="30" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>64</v>
       </c>
@@ -993,7 +1015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>66</v>
       </c>
@@ -1001,7 +1023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>68</v>
       </c>
@@ -1009,7 +1031,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>70</v>
       </c>
@@ -1017,15 +1039,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="35" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>74</v>
       </c>
@@ -1033,23 +1055,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="37" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="38" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>80</v>
       </c>
@@ -1060,6 +1082,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/week1.xlsx
+++ b/week1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\Desktop\单词\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EACCDFA-84FE-4E2D-82BE-5A94AE7C0AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F905F481-7496-4519-9AF4-66173BF7889B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4137" yWindow="1633" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>自定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,18 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第三行内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四行内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>brisk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,6 +340,130 @@
   </si>
   <si>
     <t>表明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perplex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困扰的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉耙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rational</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一系列的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advocate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坍塌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commerce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">communism </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共产主义的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +491,19 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -414,11 +539,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -699,18 +826,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="35.453125" customWidth="1"/>
+    <col min="2" max="5" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,363 +847,437 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="17" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="18" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="21" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="22" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="23" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="26" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="30" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+      <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="C34" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="35" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="C35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="C36" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="37" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="C37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="38" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+      <c r="C39" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="40" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="C40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/week1.xlsx
+++ b/week1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\Desktop\单词\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F905F481-7496-4519-9AF4-66173BF7889B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB3549-AD6B-4B24-9CFE-3121E101DAA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +526,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -539,13 +545,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -828,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,11 +895,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1008,11 +1015,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1240,11 +1247,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="6" t="s">
         <v>101</v>
       </c>
     </row>

--- a/week1.xlsx
+++ b/week1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\Desktop\单词\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB3549-AD6B-4B24-9CFE-3121E101DAA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F905F481-7496-4519-9AF4-66173BF7889B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,12 +526,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -545,14 +539,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -835,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -895,11 +888,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1015,11 +1008,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1247,11 +1240,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="6" t="s">
+    <row r="51" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="1" t="s">
         <v>101</v>
       </c>
     </row>
